--- a/data_cleaning/resources/movie_db_key.xlsx
+++ b/data_cleaning/resources/movie_db_key.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliabrunett/Desktop/Project-3/data_cleaning/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliabrunett/Desktop/Project-3 copy/data_cleaning/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40DD7A48-8DA4-EC46-AE78-5A98F4661555}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAA8A6C-8BD2-C347-9021-9A5E6A36D340}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="500" windowWidth="14200" windowHeight="15280" xr2:uid="{DD25C95C-C754-FE47-8740-8FF70B234018}"/>
+    <workbookView xWindow="13180" yWindow="500" windowWidth="15440" windowHeight="15280" xr2:uid="{DD25C95C-C754-FE47-8740-8FF70B234018}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="90">
   <si>
     <t>index</t>
   </si>
@@ -286,6 +286,24 @@
   </si>
   <si>
     <t>production_company_origin_country</t>
+  </si>
+  <si>
+    <t>country_language</t>
+  </si>
+  <si>
+    <t>language_name</t>
+  </si>
+  <si>
+    <t>Original language of film (full name)</t>
+  </si>
+  <si>
+    <t>Origin country for original language</t>
+  </si>
+  <si>
+    <t>percentage_female_led</t>
+  </si>
+  <si>
+    <t>Combination of percentage_top_5_female_lead &amp; percentage_female_directed</t>
   </si>
 </sst>
 </file>
@@ -649,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C77F1E4E-C648-6345-9397-ADF8AD623939}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -752,222 +770,222 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
         <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
         <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -983,112 +1001,145 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="B28" t="s">
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>33</v>
       </c>
-      <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
